--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E70A4F8-998F-4D34-8C16-7C9FE3C47F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="90" yWindow="375" windowWidth="27045" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_information" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -197,9 +198,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>2021 sampling plan was executed as intended.</t>
   </si>
   <si>
     <t>Y</t>
@@ -558,11 +556,14 @@
   <si>
     <t>Do the range of result values make sense, are units correct?</t>
   </si>
+  <si>
+    <t>2021 sampling plan was executed as outlined in the approved 2020 QAPP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -897,9 +898,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -909,13 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1197,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1269,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1303,7 +1302,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1320,7 +1319,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1345,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1359,7 +1358,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1372,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1383,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
@@ -1404,12 +1403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,53 +1424,56 @@
   <sheetData>
     <row r="1" spans="1:10" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>38</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -1483,18 +1485,18 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -1503,94 +1505,99 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" t="s">
-        <v>59</v>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1599,153 +1606,153 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>72</v>
+      <c r="C14" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>69</v>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>72</v>
+      <c r="C16" t="s">
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>72</v>
+      <c r="C18" t="s">
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>72</v>
+      <c r="C19" t="s">
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>72</v>
+      <c r="C20" t="s">
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1754,58 +1761,58 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -1819,7 +1826,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1828,18 +1835,18 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -1848,24 +1855,24 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="17">
         <v>0.85</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1874,24 +1881,24 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="17">
         <v>0.6</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -1900,35 +1907,35 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -1940,239 +1947,239 @@
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D47" s="23" t="s">
-        <v>107</v>
+      <c r="D47" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>111</v>
+        <v>98</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>113</v>
+        <v>98</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E70A4F8-998F-4D34-8C16-7C9FE3C47F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D988748-AF94-4343-92AF-698B0F315D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="375" windowWidth="27045" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1408,7 +1408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,6 +1532,9 @@
       <c r="D6" t="s">
         <v>76</v>
       </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1545,6 +1548,9 @@
       </c>
       <c r="D8" t="s">
         <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D988748-AF94-4343-92AF-698B0F315D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="375" windowWidth="27045" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="375" windowWidth="27045" windowHeight="12735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="project_information" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1196,7 +1195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1268,7 +1267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1403,11 +1402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -26,7 +26,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="118">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -381,9 +381,6 @@
     <t xml:space="preserve">Was instrument verification during the field season performed according to the QAPP and instrument recommendations? </t>
   </si>
   <si>
-    <t>Were instrument calibratio verification logs or records kept?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Do the instrument data files site IDs, time stamps and file names match? </t>
   </si>
   <si>
@@ -557,6 +554,12 @@
   </si>
   <si>
     <t>2021 sampling plan was executed as outlined in the approved 2020 QAPP</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>Were instrument calibration verification logs or records kept?</t>
   </si>
 </sst>
 </file>
@@ -1403,788 +1406,923 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="73" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="73" customWidth="1"/>
+    <col min="6" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="16" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>34</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>38</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>40</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E54" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="H32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="H33" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
         <v>85</v>
       </c>
-      <c r="I37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D47" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="19" t="s">
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -1409,8 +1409,8 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -1409,8 +1409,8 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">Is the project detail filled out? </t>
-  </si>
-  <si>
-    <t>Is the total number of results correct for the project?</t>
   </si>
   <si>
     <t>Are the QAPP and other supporting documents attached?</t>
@@ -853,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -905,9 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1304,7 +1298,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1321,7 +1315,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1341,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1360,7 +1354,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1368,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1385,7 +1379,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
@@ -1406,11 +1400,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1420,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>44</v>
@@ -1476,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1499,7 +1493,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
         <v>94</v>
@@ -1744,7 +1738,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1938,54 +1932,22 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>26</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -1996,79 +1958,85 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="J39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>30</v>
-      </c>
+    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -2079,13 +2047,10 @@
         <v>97</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>31</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -2096,30 +2061,13 @@
         <v>97</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>32</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>33</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>45</v>
       </c>
@@ -2129,14 +2077,11 @@
       <c r="D44" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>34</v>
-      </c>
+      <c r="E44" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>45</v>
       </c>
@@ -2146,19 +2091,25 @@
       <c r="D45" t="s">
         <v>97</v>
       </c>
-      <c r="E45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E47" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>35</v>
-      </c>
+      <c r="E45" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -2169,13 +2120,13 @@
         <v>97</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>36</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>45</v>
       </c>
@@ -2186,13 +2137,10 @@
         <v>97</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>37</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>45</v>
       </c>
@@ -2202,31 +2150,25 @@
       <c r="D50" t="s">
         <v>97</v>
       </c>
-      <c r="E50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>38</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E50" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
         <v>85</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D51" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>39</v>
-      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>45</v>
       </c>
@@ -2237,13 +2179,10 @@
         <v>97</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>40</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>45</v>
       </c>
@@ -2254,13 +2193,10 @@
         <v>97</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>41</v>
-      </c>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>45</v>
       </c>
@@ -2270,31 +2206,25 @@
       <c r="D55" t="s">
         <v>97</v>
       </c>
-      <c r="E55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>42</v>
-      </c>
-      <c r="B57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E55" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
         <v>85</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D56" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>43</v>
-      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>45</v>
       </c>
@@ -2305,13 +2235,10 @@
         <v>97</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>44</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>45</v>
       </c>
@@ -2321,8 +2248,22 @@
       <c r="D59" t="s">
         <v>97</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>112</v>
+      <c r="E59" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -1403,8 +1403,8 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,13 +1941,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25</v>
+      </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -1973,7 +1976,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>26</v>
+      </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>45</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -2064,10 +2070,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>45</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>45</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>45</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>45</v>
       </c>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F8FB6-6E10-4BEB-9637-4D682EEE042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="375" windowWidth="27045" windowHeight="12735" activeTab="2"/>
+    <workbookView xWindow="35250" yWindow="-7335" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_information" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -188,9 +189,6 @@
   </si>
   <si>
     <t>overall_success</t>
-  </si>
-  <si>
-    <t>Did the project follow the QAPP?</t>
   </si>
   <si>
     <t xml:space="preserve">Were there any deviations from the sampling plan? </t>
@@ -447,9 +445,6 @@
     <t>sampling plan can be execute correctly, and if CoC is incorrect, analysis can still be carried out incorrectly</t>
   </si>
   <si>
-    <t>executing the QA/QC sequence will determine if the QAPP was / is being followed</t>
-  </si>
-  <si>
     <r>
       <t>W</t>
     </r>
@@ -469,9 +464,6 @@
   </si>
   <si>
     <t>Are the correct monitoring locations associated with the project?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the project detail filled out? </t>
   </si>
   <si>
     <t>Are the QAPP and other supporting documents attached?</t>
@@ -562,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1192,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1264,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1399,12 +1391,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,37 +1412,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,19 +1450,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1478,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1487,16 +1479,16 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1504,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1513,13 +1505,13 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
         <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1532,19 +1524,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1552,19 +1544,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1572,19 +1564,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1592,19 +1584,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1612,16 +1604,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1629,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1638,13 +1630,13 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1652,19 +1644,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1672,19 +1664,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1692,19 +1684,19 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1712,16 +1704,16 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
         <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1729,16 +1721,16 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1746,16 +1738,16 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,16 +1755,16 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1780,16 +1772,16 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1797,16 +1789,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1814,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1823,22 +1815,22 @@
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1846,19 +1838,19 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1866,16 +1858,16 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1883,7 +1875,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -1900,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1909,13 +1901,13 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1923,7 +1915,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1932,13 +1924,13 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1952,7 +1944,7 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
@@ -1961,19 +1953,19 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35" s="17">
         <v>0.85</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1981,7 +1973,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
@@ -1990,286 +1982,258 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" s="17">
         <v>0.6</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>27</v>
+      </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
         <v>84</v>
       </c>
-      <c r="J38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="D40" t="s">
         <v>95</v>
       </c>
+      <c r="E40" s="13" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="13" t="s">
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="19" t="s">
+    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F8FB6-6E10-4BEB-9637-4D682EEE042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5909DB-4F17-4320-A430-D31089EA0E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="-7335" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_information" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -469,13 +469,7 @@
     <t>Are the QAPP and other supporting documents attached?</t>
   </si>
   <si>
-    <t>Review monitoring locations. Create a map of the locations. Are they in the correct place?</t>
-  </si>
-  <si>
     <t>Is all metadata correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the latitude and longitude filled in correctly in a consistent format? </t>
   </si>
   <si>
     <t>Is the organization ID correct?</t>
@@ -550,12 +544,18 @@
   <si>
     <t>Were instrument calibration verification logs or records kept?</t>
   </si>
+  <si>
+    <t>are units consistent for each parameter</t>
+  </si>
+  <si>
+    <t>are trip blanks below detection levels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +646,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -842,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -903,6 +909,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1392,11 +1401,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>43</v>
@@ -1462,7 +1471,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1485,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
         <v>93</v>
@@ -1730,7 +1739,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2038,6 +2047,9 @@
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>29</v>
+      </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
@@ -2051,7 +2063,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30</v>
+      </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
@@ -2061,25 +2076,34 @@
       <c r="D43" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
         <v>84</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>95</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" s="19" t="s">
         <v>99</v>
       </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>32</v>
+      </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
@@ -2089,14 +2113,14 @@
       <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" t="s">
-        <v>0</v>
+      <c r="E46" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>33</v>
+      </c>
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -2106,25 +2130,11 @@
       <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -2134,8 +2144,22 @@
       <c r="D49" t="s">
         <v>95</v>
       </c>
-      <c r="E49" t="s">
-        <v>100</v>
+      <c r="E49" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,7 +2176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>44</v>
       </c>
@@ -2162,25 +2186,11 @@
       <c r="D52" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>44</v>
       </c>
@@ -2190,11 +2200,25 @@
       <c r="D54" t="s">
         <v>95</v>
       </c>
-      <c r="E54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>44</v>
       </c>
@@ -2204,36 +2228,18 @@
       <c r="D56" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>110</v>
+      <c r="E56" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5909DB-4F17-4320-A430-D31089EA0E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED1DF86-5122-4825-AAD8-A7DF9DEAAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_information" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -533,9 +533,6 @@
     <t xml:space="preserve">Is the number of results for each Characteristic correct? </t>
   </si>
   <si>
-    <t>Do the range of result values make sense, are units correct?</t>
-  </si>
-  <si>
     <t>2021 sampling plan was executed as outlined in the approved 2020 QAPP</t>
   </si>
   <si>
@@ -549,6 +546,12 @@
   </si>
   <si>
     <t>are trip blanks below detection levels</t>
+  </si>
+  <si>
+    <t>Do the range of result values make sense?</t>
+  </si>
+  <si>
+    <t>Are units correct and consistent for each parameter?</t>
   </si>
 </sst>
 </file>
@@ -901,6 +904,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -909,9 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1299,7 +1302,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1316,7 +1319,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1355,7 +1358,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1372,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1383,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
@@ -1401,11 +1404,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1424,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>43</v>
@@ -1471,7 +1474,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1494,7 +1497,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
         <v>93</v>
@@ -1739,7 +1742,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2113,7 +2116,7 @@
       <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2130,11 +2133,14 @@
       <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>34</v>
+      </c>
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -2148,7 +2154,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>35</v>
+      </c>
       <c r="B50" t="s">
         <v>44</v>
       </c>
@@ -2162,7 +2171,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>36</v>
+      </c>
       <c r="B51" t="s">
         <v>44</v>
       </c>
@@ -2176,7 +2188,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>37</v>
+      </c>
       <c r="B52" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2205,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>38</v>
+      </c>
       <c r="B54" t="s">
         <v>44</v>
       </c>
@@ -2204,7 +2222,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>39</v>
+      </c>
       <c r="B55" t="s">
         <v>44</v>
       </c>
@@ -2215,13 +2236,10 @@
         <v>95</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -2229,17 +2247,31 @@
         <v>95</v>
       </c>
       <c r="E56" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
+++ b/other/documents/AQWMS_documents/Kenai_Baseline_Data_Evaluation_Checklist_20230331.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED1DF86-5122-4825-AAD8-A7DF9DEAAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1ED1DF86-5122-4825-AAD8-A7DF9DEAAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EECF0779-1BF2-44B6-83F3-90F69CE2CD17}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="4035" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_information" sheetId="1" r:id="rId1"/>
@@ -542,9 +542,6 @@
     <t>Were instrument calibration verification logs or records kept?</t>
   </si>
   <si>
-    <t>are units consistent for each parameter</t>
-  </si>
-  <si>
     <t>are trip blanks below detection levels</t>
   </si>
   <si>
@@ -552,13 +549,16 @@
   </si>
   <si>
     <t>Are units correct and consistent for each parameter?</t>
+  </si>
+  <si>
+    <t>kenai_baseline_2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +654,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1407,8 +1413,8 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,10 +2242,16 @@
         <v>95</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" t="s">
         <v>84</v>
       </c>
@@ -2247,10 +2259,13 @@
         <v>95</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>41</v>
+      </c>
       <c r="B57" t="s">
         <v>44</v>
       </c>
@@ -2264,17 +2279,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
